--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1F3CB6-EAFE-4385-AE23-2871C8A91745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA9F3A-BD19-4AAF-9C2F-F5EA1D207328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
+    <sheet name="0.기본세팅" sheetId="5" r:id="rId2"/>
+    <sheet name="1.메인메뉴" sheetId="3" r:id="rId3"/>
+    <sheet name="2.인게임" sheetId="6" r:id="rId4"/>
+    <sheet name="3.설정" sheetId="4" r:id="rId5"/>
+    <sheet name="4.인게임 설정" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,9 +30,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>2023 하계 게임 개발 프로젝트</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+  <si>
+    <t>2023 하계 게임 개발 프로젝트-UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920x1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴화면 UI 구성표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Game_Start(int 2) 버튼 동작 시 &lt;인게임 화면&gt;으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Game_End(int 4) 버튼 동작 시 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Game_Title(int 1)은 메인 화면에 표시하는 게임 제목이며, 글꼴은 &lt;&gt;이며 크기는 &lt;&gt;이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼의 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bgm_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스쳐 품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Bgm_Sound(int 3)은 배경 음악 조절로, 슬라이더를 통해 배경 음악 볼륨 조절을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Master_Sound(int 2)는 전체 사운드 조절로, 슬라이더를 통해 전체 볼륨 조절을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*볼륨은 0~100까지 존재한다. (0일 시 해당 사운드 부분 음소거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Character_Sound(int 5)은 캐릭터 효과음 조절로, 슬라이더를 통해 캐릭터 효과음 볼륨 조절을 한다. (캐릭터 공격, 피격 사운드, 적 공격, 피격 사운드 등 인게임 내 요소들)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Effect_Sound(int 4)은 효과음 조절로, 슬라이더를 통해 효과음 볼륨 조절을 한다. (버튼 클릭 등 게임 진행 외적인 요소들)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Quality(int 6)은 텍스쳐 품질 조절로, 드롭다운 형식으로 고품질과 저품질을 선택할 수 있다. (저품질 선택 시, 게임 진행에 영향이 적은 요소들 제거 또는 감소 ex.화면 상 대미지 출력 텍스트 양 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back_To_Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼은 평상시(normal), 호버(hover), 클릭(click) 세가지 형태로 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 UI 구성표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*언어 선택 설정 추가…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 기본세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 인게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 인게임 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 설정 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toggle Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임으로 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game_Option_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back_To_Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Option_Title(int 1)은 설정 제목으로 글꼴은 &lt;&gt;이고, 크기는 &lt;&gt;이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Game_Option_Title(int 1)은 인게임 설정 제목으로 글꼴은 &lt;&gt;이고, 크기는 &lt;&gt;이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Sound(int 2)은 총음량 조절로, 슬라이더를 통해 전체 볼륨을 조절한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Quality(int 3)은 텍스쳐 품절 조절로, 토글 그룹 형식을 사용해 텍스쳐 품질을 선택하여 조절한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Back_To_Game(int 4)은 게임으로 돌아가기로, 클릭시 설정 창을 종료하고 게임을 재개한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*게임 진행 중 인게임 설정 창이 켜져 있을 경우 창이 유지되는 동안 게임은 일시정지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*설정 버튼 = 인게임 설정, 해당 버튼을 누르면 게임은 일시 정지 되며 어두워지고, 그 위로 인게임 설정 창이 덮어씌워진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*표시 해야될 요소, 캐릭터들의 일부 능력치 (체력 등, 캐릭터 파트 보고 조정필요), 재화량, 설정 버튼, (미니맵 &lt;- 개발 여유된다면, 근데 사실 필요 할?까), 몬스터들의 일부 능력치 (체력 등, 적 파트 보고 조정필요), 주고받는 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-이후 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Game_Start를 New_Game과 Load_Game으로 나눠버려?? 고민 중….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Option(int 3) 버튼 동작 시 3.설정 으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Back_To_Main(int 7)은 돌아가기로, 클릭시 1.메인메뉴 화면으로 돌아간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,20 +358,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -83,15 +401,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,6 +468,216 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A244217-5EAD-D116-DDFD-2CE99F12779C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="3314700"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F81C77-5174-3F5A-F918-26E7360E91E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="6187440"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBB48E0-B332-8F4C-A1E9-E959048FAFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="4640580"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8638AB35-C3C3-C191-3F42-29087E817BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="7513320"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,34 +977,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B2F11D-615F-4DAE-96AF-E2E65852268F}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -444,4 +1063,1231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE736ED5-5A1D-44BC-A562-295D3CD205D1}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
+  <dimension ref="A2:I42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F038C-0CDF-464D-A6F8-8C33E297CE51}">
+  <dimension ref="A2:K50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="12">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28238FEE-7AAC-4031-B108-8AAF3308FBE7}">
+  <dimension ref="B2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA9F3A-BD19-4AAF-9C2F-F5EA1D207328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42913E5F-E32B-48CD-BFF1-655B007E3EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*설정 버튼 = 인게임 설정, 해당 버튼을 누르면 게임은 일시 정지 되며 어두워지고, 그 위로 인게임 설정 창이 덮어씌워진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*표시 해야될 요소, 캐릭터들의 일부 능력치 (체력 등, 캐릭터 파트 보고 조정필요), 재화량, 설정 버튼, (미니맵 &lt;- 개발 여유된다면, 근데 사실 필요 할?까), 몬스터들의 일부 능력치 (체력 등, 적 파트 보고 조정필요), 주고받는 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +321,42 @@
   </si>
   <si>
     <t>-StringUI/Back_To_Main(int 7)은 돌아가기로, 클릭시 1.메인메뉴 화면으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 3.설정과 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*설정 버튼 = 인게임 설정, 해당 버튼을 누르면 게임은 일시 정지 되며 3.설정 창으로 넘어가진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 재화 1차 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵은 던그리드의 미니맵 형식을 따라감 - 방의 세부 지형을 표시하는 것이 아닌 각 방끼리의 연결 통로, 위치를 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 피해 - 캐릭터 머리 위로 회색 글자로 받은 피해량이 뜨며 피해량 왼쪽 상단에 피격표시가 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준 피해 - 적 머리 위로 빨간 글자로 준 피해량이 뜨며 피해량 오른쪽 상단에 피격표시가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 - 받은 &amp; 준 피해는 피격 즉시 데미지를 받은 오브젝트 위에 나타나며 0.5초의 시간을 거쳐 서서히 사라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중첩된 피해 - 해당 오브젝트 머리 위 피해량 텍스트가 사라지지 않은 상태에서 추가적인 피해를 입으면, 해당 오브젝트의 피해량 텍스트 중 가장 위의 텍스트 위에 배치된다.(메이플 대미지 애니메이션 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽에는 현재 캐릭터가 받고있는 버프, 디버프를 아이콘 형식으로 표현하고, 아이콘 위에 마우스커서를 올릴 시 해당 아이콘 기준으로 해당 버프&amp;디버프 설명이 있는 네모박스가 확장된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,8 +439,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -411,47 +485,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,6 +617,61 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D020B697-C38F-52FA-7190-EB9F55DE3625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="883920"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -979,43 +1075,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B2F11D-615F-4DAE-96AF-E2E65852268F}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -1026,7 +1119,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1070,13 +1163,13 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1095,455 +1188,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1553,25 +1643,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1579,530 +1707,525 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F038C-0CDF-464D-A6F8-8C33E297CE51}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="16"/>
       <c r="K4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="12">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="7"/>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="7" t="s">
-        <v>73</v>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="7"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C7:D7"/>
@@ -2112,11 +2235,16 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,156 +2254,298 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28238FEE-7AAC-4031-B108-8AAF3308FBE7}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="5">
+      <c r="J3" s="17"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="5">
+      <c r="J4" s="17"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="5">
+      <c r="J5" s="17"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="5">
+      <c r="J6" s="17"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="7" t="s">
-        <v>70</v>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
@@ -2286,6 +2556,11 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42913E5F-E32B-48CD-BFF1-655B007E3EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC50D3-C51E-4242-8BC2-20AD541CE43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="0.기본세팅" sheetId="5" r:id="rId2"/>
     <sheet name="1.메인메뉴" sheetId="3" r:id="rId3"/>
-    <sheet name="2.인게임" sheetId="6" r:id="rId4"/>
-    <sheet name="3.설정" sheetId="4" r:id="rId5"/>
-    <sheet name="4.인게임 설정" sheetId="7" r:id="rId6"/>
+    <sheet name="2.불러오기" sheetId="8" r:id="rId4"/>
+    <sheet name="2.인게임" sheetId="6" r:id="rId5"/>
+    <sheet name="3.설정" sheetId="4" r:id="rId6"/>
+    <sheet name="4.인게임 설정" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-StringUI/Game_Start(int 2) 버튼 동작 시 &lt;인게임 화면&gt;으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-StringUI/Game_End(int 4) 버튼 동작 시 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +354,95 @@
   </si>
   <si>
     <t>오른쪽에는 현재 캐릭터가 받고있는 버프, 디버프를 아이콘 형식으로 표현하고, 아이콘 위에 마우스커서를 올릴 시 해당 아이콘 기준으로 해당 버프&amp;디버프 설명이 있는 네모박스가 확장된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 후보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 버튼의 경우, 코드로 구현 (원하는 에셋 못찾음) - uno 게임 메뉴화면 버튼 방식과 유사, 밑 캡쳐 화면 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/gui/icons/ui-button-pack-3-2250-button-132063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-아이콘 형식 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-StringUI/Game_Start(int 2) 버튼 동작 시 2.불러오기 로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불러오기 UI 구성표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 세이브 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 세이브 파일</t>
+  </si>
+  <si>
+    <t>3번 세이브 파일</t>
+  </si>
+  <si>
+    <t>- 불러오기 신에는 세게의 불러오기 버튼이 일렬로 존재한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-이때 세이브 파일이 존재 하지 않는 경우 해당 칸을 회색으로 덮으며, 클릭이 되지 않도록 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-예외로 어느 세이브 파일도 존재하지 않을 시 왼쪽 불러오기 버튼은 활성화 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-세이브 파일이 없는 불러오기 버튼은 버튼 위로 No data 문구를 띄우고, 세이브 데이터가 존재하는 불러오기 버튼은 데이터 상 마지막으로 플레이 한 캐릭터와 마지막으로 저장한 시각, 그리고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>캐릭터가 죽은 횟수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 띄운다.</t>
+    </r>
+  </si>
+  <si>
+    <t>-불러오기 버튼을 클릭하면 해당 데이터 파일을 불러오며 &lt;마을&gt; 화면으로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +470,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -434,12 +537,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,9 +600,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,6 +625,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>636365</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C078D6-89C0-31C7-02E1-AEA83E426DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671119" y="1789652"/>
+          <a:ext cx="3320842" cy="1971412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167779</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>195744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F36485-F885-895D-A377-A6A6E5EDBE19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194495" y="1775671"/>
+          <a:ext cx="3406866" cy="1999376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -616,7 +822,62 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB42A617-5490-DB21-08A7-E88A25981D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670561" y="2872740"/>
+          <a:ext cx="3543300" cy="1993106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -671,7 +932,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1075,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B2F11D-615F-4DAE-96AF-E2E65852268F}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1125,27 +1386,27 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1160,27 +1421,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE736ED5-5A1D-44BC-A562-295D3CD205D1}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="109" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:L7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{9D4BC3F8-4272-4B98-8ACF-C13396EE9C2D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1188,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1231,7 +1526,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1290,7 +1585,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1299,23 +1594,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1624,16 +1919,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,58 +1937,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DF109B-A686-49CB-8B52-B4688146E960}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1703,11 +2124,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F038C-0CDF-464D-A6F8-8C33E297CE51}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="118" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="118" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -1715,7 +2136,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -1741,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
@@ -1754,7 +2175,7 @@
       </c>
       <c r="I4" s="16"/>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -1762,16 +2183,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="16"/>
     </row>
@@ -1780,16 +2201,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="16"/>
     </row>
@@ -1798,16 +2219,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="16"/>
     </row>
@@ -1816,16 +2237,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="16"/>
     </row>
@@ -1834,16 +2255,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="16"/>
     </row>
@@ -1852,11 +2273,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1867,43 +2288,43 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -1912,7 +2333,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2221,11 +2642,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C7:D7"/>
@@ -2235,16 +2661,11 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2252,7 +2673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28238FEE-7AAC-4031-B108-8AAF3308FBE7}">
   <dimension ref="B2:L19"/>
   <sheetViews>
@@ -2264,7 +2685,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2303,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2324,17 +2745,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="10"/>
@@ -2345,17 +2766,17 @@
         <v>3</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="10"/>
@@ -2366,12 +2787,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2397,7 +2818,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -2425,7 +2846,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2440,7 +2861,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2455,7 +2876,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -2483,7 +2904,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2511,7 +2932,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -2526,7 +2947,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2541,7 +2962,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC50D3-C51E-4242-8BC2-20AD541CE43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05D07C3-96B3-4BE2-A63D-C31F8ABAA7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="1.메인메뉴" sheetId="3" r:id="rId3"/>
     <sheet name="2.불러오기" sheetId="8" r:id="rId4"/>
     <sheet name="2.인게임" sheetId="6" r:id="rId5"/>
-    <sheet name="3.설정" sheetId="4" r:id="rId6"/>
-    <sheet name="4.인게임 설정" sheetId="7" r:id="rId7"/>
+    <sheet name="2-1.인벤토리" sheetId="9" r:id="rId6"/>
+    <sheet name="3.설정" sheetId="4" r:id="rId7"/>
+    <sheet name="4.인게임 설정" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,12 +446,108 @@
     <t>-불러오기 버튼을 클릭하면 해당 데이터 파일을 불러오며 &lt;마을&gt; 화면으로 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>인벤토리 UI 구성표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini_map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프_디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-미니맵은 해당 스테이지의 방의 배치를 보여준다.(던그리드 미니맵 참고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-체력은 플레이어의 최대체력과 현재 체력을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-재화는 현재 판에서 플레이어가 지니고 있는 재화량을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-설정은 클릭시 게임이 일시정지되며 3.설정으로 화면이 전환된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-버프_디버프는 현재 플레이어에게 적용 중인 버프&amp;디버프를 아이콘화 시켜 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-인벤토리는 클릭시 2-1.인벤토리를 띄운다. 이때, 게임은 정지되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임 UI 구성표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-인벤토리는 우하단의 뒤로가기 버튼을 제외하고 모두 그림과 텍스트로 이루어져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-인벤토리 창이 켜져 있는 경우 게임 화면은 70%의 투명도로 흐려진다. 단, 게임은 멈추지 않고 계속해서 진행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +584,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -591,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -600,10 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,10 +1034,115 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA940E30-8033-7CC8-1D90-C1DC97BFCB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="8839200"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322045</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8339A0-77EC-73B6-C376-A637F7DC8036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="662940"/>
+          <a:ext cx="5015965" cy="2821480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1336,7 +1546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B2F11D-615F-4DAE-96AF-E2E65852268F}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1448,17 +1658,17 @@
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -1483,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="86" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
@@ -1498,14 +1708,14 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1514,14 +1724,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1533,14 +1743,14 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1549,14 +1759,14 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1565,14 +1775,14 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1919,16 +2129,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1941,7 +2151,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B3" sqref="B3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1955,14 +2165,14 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1971,14 +2181,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1987,14 +2197,14 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2003,14 +2213,14 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2031,12 +2241,12 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2047,14 +2257,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2064,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2087,48 +2297,247 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="3">
+        <v>6</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD91060-7E1F-40CC-825F-2D57C601D5B1}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F038C-0CDF-464D-A6F8-8C33E297CE51}">
   <dimension ref="A2:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="118" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="118" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2143,37 +2552,37 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="K4" t="s">
         <v>49</v>
       </c>
@@ -2182,109 +2591,109 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
@@ -2642,16 +3051,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C7:D7"/>
@@ -2661,11 +3065,16 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2673,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28238FEE-7AAC-4031-B108-8AAF3308FBE7}">
   <dimension ref="B2:L19"/>
   <sheetViews>
@@ -2702,20 +3111,20 @@
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
@@ -2723,20 +3132,20 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
@@ -2744,20 +3153,20 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
@@ -2765,20 +3174,20 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
@@ -2786,20 +3195,20 @@
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05D07C3-96B3-4BE2-A63D-C31F8ABAA7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1F3D72-C552-4077-9302-55B2D01806CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,6 +540,18 @@
   </si>
   <si>
     <t>-인벤토리 창이 켜져 있는 경우 게임 화면은 70%의 투명도로 흐려진다. 단, 게임은 멈추지 않고 계속해서 진행된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-세부 위치는 그림을 따른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준 디버프 - 적 머리 위로 현재 적용 중인 디버프를 아이콘 형식으로 표시된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-부자와 부활 아이콘의 경우, 특성을 찍은 경우에만 활성화 되며, 부활의 경우, 부활이 적용됐을 시에 아이콘이 비활성화 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +610,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +626,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +708,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,9 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,21 +1114,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>322045</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169720</xdr:rowOff>
+      <xdr:colOff>316279</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8339A0-77EC-73B6-C376-A637F7DC8036}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA8EBFE-C8E8-8D41-7DCD-24BDC3876725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1150,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="662940"/>
+          <a:off x="671384" y="1112108"/>
           <a:ext cx="5015965" cy="2821480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1553,25 +1574,25 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1658,17 +1679,17 @@
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -1693,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="86" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
@@ -1708,14 +1729,14 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1724,14 +1745,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1743,14 +1764,14 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1759,14 +1780,14 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1775,14 +1796,14 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2165,14 +2186,14 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2181,14 +2202,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2197,14 +2218,14 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2213,14 +2234,14 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
@@ -2274,168 +2295,716 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>2</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>3</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>6</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="3" t="s">
         <v>105</v>
       </c>
@@ -2468,6 +3037,31 @@
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2496,10 +3090,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD91060-7E1F-40CC-825F-2D57C601D5B1}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" zoomScale="102" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2510,20 +3104,27 @@
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
+      <c r="B5" s="13" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
+      <c r="B6" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2552,37 +3153,37 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="19"/>
       <c r="K4" t="s">
         <v>49</v>
       </c>
@@ -2591,109 +3192,109 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
@@ -3111,20 +3712,20 @@
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
@@ -3132,20 +3733,20 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
@@ -3153,20 +3754,20 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
@@ -3174,20 +3775,20 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
@@ -3195,20 +3796,20 @@
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1F3D72-C552-4077-9302-55B2D01806CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94052A98-91B5-451D-9765-5C76C8804970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -1113,22 +1113,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>14941</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>119529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>316279</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152420</xdr:rowOff>
+      <xdr:colOff>324435</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
+        <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA8EBFE-C8E8-8D41-7DCD-24BDC3876725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A4EDE8-70D2-5C04-BE81-943EDBF692B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="671384" y="1112108"/>
+          <a:off x="687294" y="1464235"/>
           <a:ext cx="5015965" cy="2821480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2150,16 +2150,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2297,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -3066,12 +3066,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C29:D29"/>
@@ -3080,6 +3074,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3092,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD91060-7E1F-40CC-825F-2D57C601D5B1}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="102" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -3652,11 +3652,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C7:D7"/>
@@ -3666,16 +3671,11 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94052A98-91B5-451D-9765-5C76C8804970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D63CA5-1914-4299-9F8B-68CD546F1391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +227,6 @@
   </si>
   <si>
     <t>설정 UI 구성표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*언어 선택 설정 추가…?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1617,27 +1613,27 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE736ED5-5A1D-44BC-A562-295D3CD205D1}">
   <dimension ref="B2:L8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="109" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="109" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -1672,15 +1668,15 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -1693,7 +1689,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="86" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
@@ -1757,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1825,12 +1821,12 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -2150,16 +2146,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2179,7 +2175,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -2203,11 +2199,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="3" t="s">
@@ -2219,11 +2215,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="3" t="s">
@@ -2235,11 +2231,11 @@
         <v>3</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="3" t="s">
@@ -2248,27 +2244,27 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -2297,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -2305,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2332,7 +2328,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -2385,7 +2381,7 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -2737,7 +2733,7 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -2764,7 +2760,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -2791,7 +2787,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -2818,7 +2814,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2845,7 +2841,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -2872,7 +2868,7 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -2898,7 +2894,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -2922,11 +2918,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="3"/>
@@ -2936,15 +2932,15 @@
         <v>2</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
@@ -2952,15 +2948,15 @@
         <v>3</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
@@ -2968,15 +2964,15 @@
         <v>4</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
@@ -2984,11 +2980,11 @@
         <v>5</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="3"/>
@@ -2998,74 +2994,80 @@
         <v>6</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C29:D29"/>
@@ -3074,12 +3076,6 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3092,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD91060-7E1F-40CC-825F-2D57C601D5B1}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="102" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -3100,27 +3096,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
@@ -3136,20 +3132,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F038C-0CDF-464D-A6F8-8C33E297CE51}">
-  <dimension ref="A2:K50"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="118" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="118" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3163,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -3184,11 +3180,8 @@
         <v>18</v>
       </c>
       <c r="I4" s="19"/>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -3206,7 +3199,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -3224,7 +3217,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -3242,7 +3235,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -3260,7 +3253,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -3278,7 +3271,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -3296,22 +3289,22 @@
       </c>
       <c r="I10" s="19"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3334,7 +3327,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3652,16 +3645,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C7:D7"/>
@@ -3671,11 +3659,16 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,7 +3688,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -3734,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -3760,7 +3753,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -3786,7 +3779,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="10"/>
@@ -3797,12 +3790,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3828,7 +3821,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3856,7 +3849,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3871,7 +3864,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3886,7 +3879,7 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3914,7 +3907,7 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3957,7 +3950,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -3972,7 +3965,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D63CA5-1914-4299-9F8B-68CD546F1391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE7E04-C698-46F7-B6C1-63994F1C60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,6 +548,18 @@
   </si>
   <si>
     <t>-부자와 부활 아이콘의 경우, 특성을 찍은 경우에만 활성화 되며, 부활의 경우, 부활이 적용됐을 시에 아이콘이 비활성화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴로 돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backToMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-우측 하단엔 첫 화면으로 돌아가는 버튼이 존재하며 클릭시 1.메인메뉴 로 이동한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -950,13 +965,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>4286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1710,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4C360-D725-49E8-A35F-07FE180AE68E}">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="86" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
@@ -2146,16 +2161,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2165,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DF109B-A686-49CB-8B52-B4688146E960}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2242,38 +2257,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
-        <v>92</v>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
@@ -2293,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E38E65E-4F99-4590-8118-B5A7CA5CC898}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -3062,12 +3100,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C29:D29"/>
@@ -3076,6 +3108,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,11 +3683,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="C7:D7"/>
@@ -3659,16 +3702,11 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Disign/UI.xlsx
+++ b/Disign/UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SummerProject\Disign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE7E04-C698-46F7-B6C1-63994F1C60AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93339C88-C5C9-435A-95C4-BA9E1B2FFAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BA5314C9-5B38-4C8C-9476-BFA147B961A3}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>2023 하계 게임 개발 프로젝트-UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,6 +560,22 @@
   </si>
   <si>
     <t>-우측 하단엔 첫 화면으로 돌아가는 버튼이 존재하며 클릭시 1.메인메뉴 로 이동한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글씨체 후보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://noonnu.cc/font_page/250 (비트 글씨체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://noonnu.cc/font_page/1127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://noonnu.cc/font_page/767</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,6 +738,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,9 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1585,25 +1601,25 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1663,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE736ED5-5A1D-44BC-A562-295D3CD205D1}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1690,21 +1706,41 @@
       <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1714,10 +1750,13 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{9D4BC3F8-4272-4B98-8ACF-C13396EE9C2D}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{8C089208-54DB-416D-BFA1-CFE2B79D379D}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{9BE17970-54E4-4499-BAFA-74DC73250C81}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{9054B7AE-3FB5-4FF4-8F29-793A712D815A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1740,14 +1779,14 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1756,14 +1795,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1775,14 +1814,14 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1791,14 +1830,14 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1807,14 +1846,14 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DF109B-A686-49CB-8B52-B4688146E960}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2197,14 +2236,14 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
@@ -2213,14 +2252,14 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2229,14 +2268,14 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
@@ -2245,31 +2284,31 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="21">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2939,14 +2978,14 @@
       <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="6" t="s">
         <v>20</v>
       </c>
@@ -2955,28 +2994,28 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>2</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="3" t="s">
         <v>101</v>
       </c>
@@ -2985,14 +3024,14 @@
       <c r="B29" s="3">
         <v>3</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="3" t="s">
         <v>101</v>
       </c>
@@ -3001,14 +3040,14 @@
       <c r="B30" s="3">
         <v>4</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="3" t="s">
         <v>104</v>
       </c>
@@ -3017,28 +3056,28 @@
       <c r="B31" s="3">
         <v>5</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>6</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="3" t="s">
         <v>104</v>
       </c>
@@ -3187,145 +3226,145 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
@@ -3743,20 +3782,20 @@
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
@@ -3764,20 +3803,20 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
     </row>
@@ -3785,20 +3824,20 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
@@ -3806,20 +3845,20 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
@@ -3827,20 +3866,20 @@
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
